--- a/Macro.xlsx
+++ b/Macro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F54D4-5E11-48F6-880F-93AACC3EBDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F1FF9-5012-463C-9165-9E28715079A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C71E9D8F-4412-4AD8-A664-D4E1A52AE3FD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="353">
   <si>
     <t>Unemployment rate</t>
   </si>
@@ -519,192 +519,6 @@
     <t xml:space="preserve">Tepper anticipated that the Federal Reserve's low-interest-rate environment and aggressive monetary policy would push stock markets higher. </t>
   </si>
   <si>
-    <t>Tepper analysis is contrarian , macro-driven approach , often combined with deep dives into distressed assets.</t>
-  </si>
-  <si>
-    <t>Tepper pays a lot of attention to central bank policies,especially the US Federal Reserve interest rates and monetary policy.</t>
-  </si>
-  <si>
-    <t>He believes that loose monetary policies like low-interest rates and quantitative easing , can lead to higher asset prices, and he tailors his investments to benefit from this liquidity-driven approach.</t>
-  </si>
-  <si>
-    <t>Government inverventions and support</t>
-  </si>
-  <si>
-    <t>Tepper often bets on sectors that he believes the gov will bail out to support during a crisis.</t>
-  </si>
-  <si>
-    <t>He evaluated international economic events such as currency crises , debt defaults , geopolitical tensions , to asses which asset may be undervalued due to temporary external pressures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distressed debt investing </t>
-  </si>
-  <si>
-    <t>Macro and policy focus</t>
-  </si>
-  <si>
-    <t>Tepper most characteristic investment style is buying distressed bonds and assets that other investors are selling off due to short-term crises.</t>
-  </si>
-  <si>
-    <t>Assets in crisis tend to fall below their intrinsic value , creating so a buying opportunity with good margin of safety.</t>
-  </si>
-  <si>
-    <t>Seeking catalyst</t>
-  </si>
-  <si>
-    <t>Tepper looks for a catalyst that he believes will unlock the value of his investments.</t>
-  </si>
-  <si>
-    <t>For example gov bail outs.</t>
-  </si>
-  <si>
-    <t>Taking advantage of fear and panic.</t>
-  </si>
-  <si>
-    <t>He has a contrarian philosophy: when market sentiment is at an extreme low, he starts looking for value.</t>
-  </si>
-  <si>
-    <t>STRATEGY</t>
-  </si>
-  <si>
-    <t>Industry Trends and economic drivers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beyond macro trends , Tepper studies industries to understand economic drivers unique to each one </t>
-  </si>
-  <si>
-    <t>In the airline and steel industries for example he analysed regulatory trends like tariffs and consolidation ,</t>
-  </si>
-  <si>
-    <t>assesing how these factors could help struggling companies recover</t>
-  </si>
-  <si>
-    <t>Debt structure and priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In distressed debt , Tepper evaluated the capital structure to understand which debt levels will be prioritized in any potential recovery </t>
-  </si>
-  <si>
-    <t>or restructuring.</t>
-  </si>
-  <si>
-    <t>He often invest in senio debt which holds repayment priority over equity , providing a higher likelihood of a return in bankruptcies or reorganisations.</t>
-  </si>
-  <si>
-    <t>Risk management and adaptability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedging and flexibility </t>
-  </si>
-  <si>
-    <t>Using hedging for potential downsides and willing to shift position very fast if he sees a change in market dynamics</t>
-  </si>
-  <si>
-    <t>High convictiom , high stakes</t>
-  </si>
-  <si>
-    <t>Allocating substancial amount of portfolio in one bet with high conviction rather than diversifying with many position with poor convictions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opportunistic timing </t>
-  </si>
-  <si>
-    <t>Tepper does not rely on a single strategy , he adapts different market conditions , using a both long and short strategy depending on the outlook.</t>
-  </si>
-  <si>
-    <t>Waits for the ideal entry point taking time building the positions during downturns and exiting when his target value is reached</t>
-  </si>
-  <si>
-    <t>Turkey’s Currency and Debt Issues</t>
-  </si>
-  <si>
-    <r>
-      <t>Background:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Turkey has been grappling with a depreciating currency, high inflation, and a challenging political environment. This has led to a reduction in foreign investment and a decline in the value of Turkish assets, including bonds.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Scenario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Discounted Turkish government or corporate debt could recover in value if Turkey manages to stabilize inflation or improve its economic relations globally. Any improvement in currency stability would likely lead to gains for bondholders.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Risk Factors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Continued inflation, political uncertainty, and economic sanctions pose ongoing challenges.</t>
-    </r>
-  </si>
-  <si>
-    <t>Emerging Markets Corporate Debt (e.g., in Africa)</t>
-  </si>
-  <si>
-    <r>
-      <t>Background:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Some emerging markets in Africa, like Ghana or Zambia, are facing rising debt levels and economic hardships, especially following the pandemic. Their corporate debt often trades at a significant discount.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Scenario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Certain distressed companies or sovereign debt in these regions might see normalization if there’s international financial support or if commodity prices rise, benefiting these economies.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Risk Factors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Political risks, global commodity price fluctuations, and reliance on international assistance make this a volatile bet.</t>
-    </r>
-  </si>
-  <si>
     <t>Q314</t>
   </si>
   <si>
@@ -1324,39 +1138,6 @@
   </si>
   <si>
     <t>Q421</t>
-  </si>
-  <si>
-    <t>Codification of behaviours heuristics at the company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from stock selection </t>
-  </si>
-  <si>
-    <t xml:space="preserve">to position sizing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">to market timing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">to risk management </t>
-  </si>
-  <si>
-    <t>NOT</t>
-  </si>
-  <si>
-    <t>When companies that make appliances and digital thermostats contract with the firms that manifacture the microchips to make their products smart</t>
-  </si>
-  <si>
-    <t>they force the chip makers to sign non-disclosures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If we find a common components among a bunch of varied devices you can reverse engineer it </t>
-  </si>
-  <si>
-    <t>calling the company , to pitch them the idea of building a machine getting the info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angle of attack on an internet sector worth 12x more </t>
   </si>
   <si>
     <t>Start Year</t>
@@ -6924,604 +6705,604 @@
     </row>
     <row r="4" spans="1:223" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR4" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="BD4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="BF4" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="BG4" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="BH4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="BI4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="BJ4" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="BK4" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="BL4" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="BM4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="BN4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="BO4" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="BP4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="BQ4" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="BR4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="BS4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="BT4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="BV4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="BW4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="BX4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="BZ4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="CA4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="CB4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="CC4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="CD4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="CE4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="CF4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="CH4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="CI4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="CJ4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="CK4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="CL4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="CM4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="CN4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="CO4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="CP4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="CQ4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="CR4" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="CS4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="CT4" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="CU4" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="CV4" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="CW4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="CX4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="CY4" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="CZ4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="DA4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="DB4" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="DC4" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="DD4" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="DE4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="DF4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="DG4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="DH4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="DI4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="DJ4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="DK4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="DL4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="DM4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="BZ4" s="3" t="s">
+      <c r="DN4" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="DO4" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CB4" s="3" t="s">
+      <c r="DP4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="CC4" s="3" t="s">
+      <c r="DQ4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="DR4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="CE4" s="3" t="s">
+      <c r="DS4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="CF4" s="3" t="s">
+      <c r="DT4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="DU4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="CH4" s="3" t="s">
+      <c r="DV4" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="CI4" s="3" t="s">
+      <c r="DW4" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="CJ4" s="3" t="s">
+      <c r="DX4" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="CK4" s="3" t="s">
+      <c r="DY4" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="CL4" s="3" t="s">
+      <c r="DZ4" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="CM4" s="3" t="s">
+      <c r="EA4" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="CN4" s="3" t="s">
+      <c r="EB4" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="CO4" s="3" t="s">
+      <c r="EC4" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="CP4" s="3" t="s">
+      <c r="ED4" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="CQ4" s="3" t="s">
+      <c r="EE4" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="CR4" s="3" t="s">
+      <c r="EF4" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="CS4" s="3" t="s">
+      <c r="EG4" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="CT4" s="3" t="s">
+      <c r="EH4" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="CU4" s="3" t="s">
+      <c r="EI4" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="CV4" s="3" t="s">
+      <c r="EJ4" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="CW4" s="3" t="s">
+      <c r="EK4" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="CX4" s="3" t="s">
+      <c r="EL4" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="CY4" s="3" t="s">
+      <c r="EM4" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="CZ4" s="3" t="s">
+      <c r="EN4" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="DA4" s="3" t="s">
+      <c r="EO4" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="DB4" s="3" t="s">
+      <c r="EP4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="DC4" s="3" t="s">
+      <c r="EQ4" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="DD4" s="3" t="s">
+      <c r="ER4" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="DE4" s="3" t="s">
+      <c r="ES4" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="DF4" s="3" t="s">
+      <c r="ET4" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="DG4" s="3" t="s">
+      <c r="EU4" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="DH4" s="3" t="s">
+      <c r="EV4" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="DI4" s="3" t="s">
+      <c r="EW4" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="DJ4" s="3" t="s">
+      <c r="EX4" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="DK4" s="3" t="s">
+      <c r="EY4" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="DL4" s="3" t="s">
+      <c r="EZ4" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="DM4" s="3" t="s">
+      <c r="FA4" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="DN4" s="3" t="s">
+      <c r="FB4" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="DO4" s="3" t="s">
+      <c r="FC4" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="DP4" s="3" t="s">
+      <c r="FD4" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="DQ4" s="3" t="s">
+      <c r="FE4" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="DR4" s="3" t="s">
+      <c r="FF4" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="DS4" s="3" t="s">
+      <c r="FG4" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="DT4" s="3" t="s">
+      <c r="FH4" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="DU4" s="3" t="s">
+      <c r="FI4" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="DV4" s="3" t="s">
+      <c r="FJ4" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="DW4" s="3" t="s">
+      <c r="FK4" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="DX4" s="3" t="s">
+      <c r="FL4" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="DY4" s="3" t="s">
+      <c r="FM4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="DZ4" s="3" t="s">
+      <c r="FN4" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="EA4" s="3" t="s">
+      <c r="FO4" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="EB4" s="3" t="s">
+      <c r="FP4" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="EC4" s="3" t="s">
+      <c r="FQ4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="FR4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="FS4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="FT4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="FU4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="FV4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="FW4" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="ED4" s="3" t="s">
+      <c r="FX4" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="EE4" s="3" t="s">
+      <c r="FY4" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="EF4" s="3" t="s">
+      <c r="FZ4" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="EG4" s="3" t="s">
+      <c r="GA4" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="EH4" s="3" t="s">
+      <c r="GB4" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="EI4" s="3" t="s">
+      <c r="GC4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="EJ4" s="3" t="s">
+      <c r="GD4" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="EK4" s="3" t="s">
+      <c r="GE4" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="EL4" s="3" t="s">
+      <c r="GF4" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="EM4" s="3" t="s">
+      <c r="GG4" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="EN4" s="3" t="s">
+      <c r="GH4" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="EO4" s="3" t="s">
+      <c r="GI4" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="EP4" s="3" t="s">
+      <c r="GJ4" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="EQ4" s="3" t="s">
+      <c r="GK4" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="ER4" s="3" t="s">
+      <c r="GL4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="ES4" s="3" t="s">
+      <c r="GM4" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="ET4" s="3" t="s">
+      <c r="GN4" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="EU4" s="3" t="s">
+      <c r="GO4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="EV4" s="3" t="s">
+      <c r="GP4" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="EW4" s="3" t="s">
+      <c r="GQ4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="EX4" s="3" t="s">
+      <c r="GR4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="EY4" s="3" t="s">
+      <c r="GS4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="EZ4" s="3" t="s">
+      <c r="GT4" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="FA4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="FB4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="FC4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="FD4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="FE4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="FF4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="FG4" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="FH4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="FI4" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="FJ4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="FK4" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="FL4" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="FM4" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="FN4" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="FO4" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="FP4" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="FQ4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="FR4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="FS4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="FT4" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="FU4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="FV4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="FW4" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="FX4" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="FY4" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="FZ4" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="GA4" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="GB4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="GC4" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="GD4" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="GE4" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="GF4" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="GG4" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="GH4" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="GI4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="GJ4" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="GK4" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="GL4" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="GM4" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="GN4" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="GO4" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="GP4" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="GQ4" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="GR4" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="GS4" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="GT4" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="GU4" s="3" t="s">
         <v>15</v>
@@ -7557,19 +7338,19 @@
         <v>25</v>
       </c>
       <c r="HF4" s="3" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="HG4" s="3" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="HH4" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="HI4" s="3" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="HJ4" s="3" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="HM4" s="3">
         <v>2021</v>
@@ -10072,22 +9853,22 @@
     </row>
     <row r="103" spans="2:208" x14ac:dyDescent="0.2">
       <c r="GU103" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="GV103" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="GW103" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="GX103" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="GY103" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="GZ103" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="2:208" x14ac:dyDescent="0.2">
@@ -10134,22 +9915,22 @@
     </row>
     <row r="112" spans="2:208" x14ac:dyDescent="0.2">
       <c r="GU112" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="GV112" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="GW112" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="GX112" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="GY112" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="GZ112" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="201:208" x14ac:dyDescent="0.2">
@@ -10279,13 +10060,13 @@
         <v>25</v>
       </c>
       <c r="HB131" s="3" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="HC131" s="3" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="HD131" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="2:212" x14ac:dyDescent="0.2">
@@ -10321,7 +10102,7 @@
     </row>
     <row r="133" spans="2:212" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="GU133" s="3">
         <v>3272</v>
@@ -10415,13 +10196,13 @@
   <sheetData>
     <row r="1" spans="1:665" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:665" x14ac:dyDescent="0.2">
@@ -19737,16 +19518,16 @@
   <sheetData>
     <row r="12" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P12" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="Q12" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="R12" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="S12" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="16:19" x14ac:dyDescent="0.2">
@@ -19757,10 +19538,10 @@
         <v>1974</v>
       </c>
       <c r="R13" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="S13" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="16:19" x14ac:dyDescent="0.2">
@@ -19771,10 +19552,10 @@
         <v>1977</v>
       </c>
       <c r="R14" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="S14" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="16:19" x14ac:dyDescent="0.2">
@@ -19785,10 +19566,10 @@
         <v>1981</v>
       </c>
       <c r="R15" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="S15" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="16:19" x14ac:dyDescent="0.2">
@@ -19799,10 +19580,10 @@
         <v>1989</v>
       </c>
       <c r="R16" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="S16" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
@@ -19813,10 +19594,10 @@
         <v>1993</v>
       </c>
       <c r="R17" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="S17" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
@@ -19827,10 +19608,10 @@
         <v>2001</v>
       </c>
       <c r="R18" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="S18" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
@@ -19859,10 +19640,10 @@
         <v>2009</v>
       </c>
       <c r="R19" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="S19" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
@@ -19903,10 +19684,10 @@
         <v>2017</v>
       </c>
       <c r="R20" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="S20" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
@@ -19917,10 +19698,10 @@
         <v>2021</v>
       </c>
       <c r="R21" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="S21" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
@@ -19931,10 +19712,10 @@
         <v>2025</v>
       </c>
       <c r="R22" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="S22" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
@@ -19945,10 +19726,10 @@
         <v>2029</v>
       </c>
       <c r="R23" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="S23" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -20102,7 +19883,7 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q58" s="43" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="S58" s="5">
         <v>2.69</v>
@@ -20110,7 +19891,7 @@
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q59" s="43" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="S59" s="5">
         <v>2.13</v>
@@ -21084,7 +20865,7 @@
     </row>
     <row r="3" spans="1:243" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="C3" s="43">
         <v>1438.24</v>
@@ -21841,7 +21622,7 @@
     </row>
     <row r="4" spans="1:243" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="FO4" s="55">
         <f t="shared" ref="FO4:FZ4" si="1">+FN3/$FO$3-1</f>
@@ -22022,7 +21803,7 @@
     </row>
     <row r="5" spans="1:243" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="O5" s="55">
         <f t="shared" ref="O5:BZ5" si="5">+O3/C3-1</f>
@@ -22827,7 +22608,7 @@
     </row>
     <row r="6" spans="1:243" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="AM6" s="2" t="str">
         <f t="shared" ref="AM6:CX6" si="9">IF(AM5&gt;$B$16,"SELL","")</f>
@@ -23536,7 +23317,7 @@
     </row>
     <row r="7" spans="1:243" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="AM7" s="2" t="str">
         <f t="shared" ref="AM7:CX7" si="12">IF(AM5&lt;$B$17,"BUY","")</f>
@@ -24245,7 +24026,7 @@
     </row>
     <row r="8" spans="1:243" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="AM8" s="54">
         <f>+AM3</f>
@@ -24576,7 +24357,7 @@
     </row>
     <row r="9" spans="1:243" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="AM9" s="54">
         <f>+AY3</f>
@@ -24907,7 +24688,7 @@
     </row>
     <row r="10" spans="1:243" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="AM10" s="56">
         <f>+AM8/AM9-1</f>
@@ -25287,7 +25068,7 @@
     </row>
     <row r="14" spans="1:243" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="B14" s="57">
         <f>AVERAGE(O5:HF5)</f>
@@ -25464,7 +25245,7 @@
     </row>
     <row r="15" spans="1:243" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="B15" s="57">
         <f>STDEV(O5:HF5)</f>
@@ -25641,7 +25422,7 @@
     </row>
     <row r="16" spans="1:243" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="B16" s="57">
         <f>+B15+B14</f>
@@ -25818,7 +25599,7 @@
     </row>
     <row r="17" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="B17" s="57">
         <f>+B15-B14</f>
@@ -25995,7 +25776,7 @@
     </row>
     <row r="19" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="B19">
         <f>COUNT(O10:HF10)</f>
@@ -26004,7 +25785,7 @@
     </row>
     <row r="20" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="B20">
         <f>COUNTIF(O10:HF10,"&gt;0")</f>
@@ -26013,7 +25794,7 @@
     </row>
     <row r="21" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="B21" s="57">
         <f>B20/B19</f>
@@ -26142,7 +25923,7 @@
     </row>
     <row r="22" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="B22" s="57">
         <f>AVERAGE(O10:HF10)</f>
@@ -26271,7 +26052,7 @@
     </row>
     <row r="23" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="B23" s="57">
         <f>SUM(O10:HF10)</f>
@@ -26406,148 +26187,166 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4543E5E-8E7F-486E-8AE5-EDCFBD397707}">
-  <dimension ref="A2:S233"/>
+  <dimension ref="B2:S201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="1"/>
-    </row>
-    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S11" s="5"/>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="S15" s="5"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    <row r="43" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>93</v>
+    <row r="46" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="D46" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>74</v>
+      <c r="B47" s="1"/>
+      <c r="D47" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -26556,42 +26355,42 @@
     <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
-      <c r="D51" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
-      <c r="D54" t="s">
-        <v>93</v>
+      <c r="C54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>75</v>
+      <c r="B56" s="1"/>
+      <c r="D56" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -26600,39 +26399,39 @@
     <row r="58" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="D59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="D60" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="63" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
-      <c r="D63" t="s">
-        <v>93</v>
+      <c r="C63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="D64" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>76</v>
+      <c r="B65" s="1"/>
+      <c r="D65" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -26641,39 +26440,39 @@
     <row r="67" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="D68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="D69" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="71" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
-      <c r="C71" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="72" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
-      <c r="D72" t="s">
-        <v>93</v>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="D73" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>77</v>
+      <c r="B74" s="1"/>
+      <c r="D74" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -26682,42 +26481,42 @@
     <row r="76" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
-      <c r="D78" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="79" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="80" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
-      <c r="C80" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
-      <c r="D81" t="s">
-        <v>93</v>
+      <c r="C81" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
+      <c r="D82" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="83" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>80</v>
+      <c r="B83" s="1"/>
+      <c r="D83" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -26726,42 +26525,42 @@
     <row r="85" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="D86" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
-      <c r="D87" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="88" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="89" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
-      <c r="C89" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="90" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
-      <c r="D90" t="s">
-        <v>93</v>
+      <c r="C90" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
+      <c r="D91" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="92" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>79</v>
+      <c r="B92" s="1"/>
+      <c r="D92" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -26770,356 +26569,107 @@
     <row r="94" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="D96" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="D99" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C107" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D108" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="8:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H128" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C135" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>2</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C140" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C141" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>3</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C145" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>4</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C150" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C151" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>5</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>6</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C159" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C165" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C166" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>8</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C171" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D172" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>9</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C176" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>10</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C180" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C181" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B192" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="32"/>
-    </row>
-    <row r="194" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B194" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B195" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B196" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B201" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="32"/>
-    </row>
-    <row r="203" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B203" s="33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B204" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B205" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B215" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B223" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B225" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B233" t="s">
-        <v>366</v>
-      </c>
+    <row r="124" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H124" s="1"/>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="174" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="188" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B188" s="31"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" s="32"/>
+    </row>
+    <row r="190" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B190" s="33"/>
+    </row>
+    <row r="191" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B191" s="33"/>
+    </row>
+    <row r="192" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B192" s="33"/>
+    </row>
+    <row r="197" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B197" s="31"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="32"/>
+    </row>
+    <row r="199" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B199" s="33"/>
+    </row>
+    <row r="200" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B200" s="33"/>
+    </row>
+    <row r="201" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B201" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Macro.xlsx
+++ b/Macro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F1FF9-5012-463C-9165-9E28715079A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674779F6-A6B5-414A-B896-3E6018A488C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C71E9D8F-4412-4AD8-A664-D4E1A52AE3FD}"/>
   </bookViews>
